--- a/Task13/Test case template .xlsx
+++ b/Task13/Test case template .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladyslav_Kliucharov\Documents\Task13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladyslav_Kliucharov\Git\Performace Test Mentoring\Task13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42EE84-9927-4F87-8F1C-3FA680F75CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF5152-0925-46C1-A3BD-55C2BB7A9CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="189">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -586,6 +586,30 @@
   </si>
   <si>
     <t>14. Click "Account" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Spotify_WEB_Premium_Duo_Account_11</t>
   </si>
 </sst>
 </file>
@@ -768,7 +792,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,6 +987,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,7 +1316,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1331,42 +1361,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="23" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1413,6 +1407,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1422,9 +1428,39 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="23" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1808,10 +1844,10 @@
   <dimension ref="A1:J757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="H96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
+      <selection pane="bottomRight" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,91 +1870,91 @@
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
@@ -2021,17 +2057,17 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+    <row r="13" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
@@ -2215,17 +2251,17 @@
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+    <row r="24" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
@@ -2284,7 +2320,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="26" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="14"/>
@@ -2314,17 +2350,17 @@
       </c>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+    <row r="30" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
@@ -2370,7 +2406,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F33" s="14"/>
@@ -2383,17 +2419,17 @@
       </c>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+    <row r="34" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
@@ -2435,17 +2471,17 @@
       </c>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+    <row r="37" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
@@ -2491,7 +2527,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="28" t="s">
         <v>74</v>
       </c>
       <c r="F40" s="14"/>
@@ -2508,7 +2544,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="28" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="18" t="s">
@@ -2527,7 +2563,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="26" t="s">
         <v>79</v>
       </c>
       <c r="F42" s="18"/>
@@ -2540,17 +2576,17 @@
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="35"/>
+    <row r="43" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
@@ -2582,7 +2618,7 @@
       <c r="E45" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="9" t="s">
         <v>81</v>
       </c>
@@ -2593,50 +2629,50 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="26" t="s">
         <v>82</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="42"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="26" t="s">
         <v>83</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="42"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="18" t="s">
         <v>84</v>
       </c>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
+    <row r="48" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
@@ -2651,7 +2687,7 @@
       <c r="E49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="41"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="9" t="s">
         <v>26</v>
       </c>
@@ -2665,10 +2701,10 @@
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="9" t="s">
         <v>70</v>
       </c>
@@ -2679,84 +2715,84 @@
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H51" s="42"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="18" t="s">
         <v>86</v>
       </c>
       <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="42"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="18" t="s">
         <v>93</v>
       </c>
       <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="26" t="s">
         <v>89</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="42"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="18" t="s">
         <v>90</v>
       </c>
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="26" t="s">
         <v>91</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H54" s="42"/>
+      <c r="H54" s="30"/>
       <c r="I54" s="18" t="s">
         <v>92</v>
       </c>
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
+    <row r="55" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B56" s="20" t="s">
@@ -2771,7 +2807,7 @@
       <c r="E56" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="41"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>
@@ -2785,10 +2821,10 @@
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="41"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="9" t="s">
         <v>96</v>
       </c>
@@ -2802,10 +2838,10 @@
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="32" t="s">
         <v>97</v>
       </c>
       <c r="G58" s="9" t="s">
@@ -2821,10 +2857,10 @@
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="44"/>
+      <c r="F59" s="32"/>
       <c r="G59" s="9" t="s">
         <v>103</v>
       </c>
@@ -2838,10 +2874,10 @@
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="32"/>
       <c r="G60" s="9" t="s">
         <v>105</v>
       </c>
@@ -2855,10 +2891,10 @@
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="44"/>
+      <c r="F61" s="32"/>
       <c r="G61" s="9" t="s">
         <v>96</v>
       </c>
@@ -2869,27 +2905,27 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="18"/>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="26" t="s">
         <v>107</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H62" s="42"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="18" t="s">
         <v>75</v>
       </c>
       <c r="J62" s="18"/>
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="18"/>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="26" t="s">
         <v>108</v>
       </c>
       <c r="F63" s="18" t="s">
@@ -2898,43 +2934,43 @@
       <c r="G63" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H63" s="42"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="18" t="s">
         <v>78</v>
       </c>
       <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="18"/>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="26" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H64" s="42"/>
+      <c r="H64" s="30"/>
       <c r="I64" s="18" t="s">
         <v>99</v>
       </c>
       <c r="J64" s="18"/>
     </row>
-    <row r="65" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-    </row>
-    <row r="66" spans="1:10" s="50" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
+    <row r="65" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10" s="38" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A66" s="34"/>
       <c r="B66" s="20" t="s">
         <v>137</v>
       </c>
@@ -2947,63 +2983,63 @@
       <c r="E66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="48"/>
+      <c r="F66" s="36"/>
       <c r="G66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="47"/>
+      <c r="H66" s="35"/>
       <c r="I66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J66" s="48"/>
-    </row>
-    <row r="67" spans="1:10" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="38" t="s">
+      <c r="J66" s="36"/>
+    </row>
+    <row r="67" spans="1:10" s="38" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="34"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="51" t="s">
+      <c r="F67" s="36"/>
+      <c r="G67" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="51" t="s">
+      <c r="H67" s="35"/>
+      <c r="I67" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="J67" s="48"/>
-    </row>
-    <row r="68" spans="1:10" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="49" t="s">
+      <c r="J67" s="36"/>
+    </row>
+    <row r="68" spans="1:10" s="38" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="34"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="48"/>
-      <c r="G68" s="51" t="s">
+      <c r="F68" s="36"/>
+      <c r="G68" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="51" t="s">
+      <c r="H68" s="35"/>
+      <c r="I68" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="J68" s="48"/>
-    </row>
-    <row r="69" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
+      <c r="J68" s="36"/>
+    </row>
+    <row r="69" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B70" s="20" t="s">
@@ -3018,7 +3054,7 @@
       <c r="E70" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="41"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="9" t="s">
         <v>26</v>
       </c>
@@ -3032,10 +3068,10 @@
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F71" s="41"/>
+      <c r="F71" s="29"/>
       <c r="G71" s="9" t="s">
         <v>112</v>
       </c>
@@ -3049,10 +3085,10 @@
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F72" s="44"/>
+      <c r="F72" s="32"/>
       <c r="G72" s="9" t="s">
         <v>118</v>
       </c>
@@ -3066,7 +3102,7 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="28" t="s">
         <v>114</v>
       </c>
       <c r="F73" s="14"/>
@@ -3083,7 +3119,7 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="28" t="s">
         <v>116</v>
       </c>
       <c r="F74" s="14"/>
@@ -3100,7 +3136,7 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="26" t="s">
         <v>119</v>
       </c>
       <c r="F75" s="18" t="s">
@@ -3119,7 +3155,7 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="28" t="s">
         <v>120</v>
       </c>
       <c r="F76" s="14"/>
@@ -3136,7 +3172,7 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="14"/>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F77" s="18" t="s">
@@ -3155,7 +3191,7 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="14"/>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F78" s="18" t="s">
@@ -3174,7 +3210,7 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="28" t="s">
         <v>127</v>
       </c>
       <c r="F79" s="14"/>
@@ -3191,7 +3227,7 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="14"/>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="28" t="s">
         <v>141</v>
       </c>
       <c r="F80" s="14"/>
@@ -3204,17 +3240,17 @@
       </c>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
+    <row r="81" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
     </row>
     <row r="82" spans="1:10" ht="45.6" x14ac:dyDescent="0.3">
       <c r="B82" s="20" t="s">
@@ -3288,17 +3324,17 @@
       </c>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
+    <row r="86" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
     </row>
     <row r="87" spans="1:10" ht="45.6" x14ac:dyDescent="0.3">
       <c r="B87" s="20" t="s">
@@ -3313,61 +3349,61 @@
       <c r="E87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="48"/>
+      <c r="F87" s="36"/>
       <c r="G87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H87" s="47"/>
+      <c r="H87" s="35"/>
       <c r="I87" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J87" s="48"/>
+      <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="38" t="s">
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F88" s="48"/>
-      <c r="G88" s="51" t="s">
+      <c r="F88" s="36"/>
+      <c r="G88" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H88" s="47"/>
-      <c r="I88" s="51" t="s">
+      <c r="H88" s="35"/>
+      <c r="I88" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="J88" s="48"/>
+      <c r="J88" s="36"/>
     </row>
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="49" t="s">
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="F89" s="48"/>
+      <c r="F89" s="36"/>
       <c r="G89" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H89" s="47"/>
+      <c r="H89" s="35"/>
       <c r="I89" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="J89" s="48"/>
-    </row>
-    <row r="90" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
+      <c r="J89" s="36"/>
+    </row>
+    <row r="90" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
     </row>
     <row r="91" spans="1:10" ht="68.400000000000006" x14ac:dyDescent="0.3">
       <c r="B91" s="20" t="s">
@@ -3382,49 +3418,49 @@
       <c r="E91" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="48"/>
+      <c r="F91" s="36"/>
       <c r="G91" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H91" s="47"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J91" s="48"/>
+      <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="38" t="s">
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F92" s="48"/>
-      <c r="G92" s="51" t="s">
+      <c r="F92" s="36"/>
+      <c r="G92" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H92" s="47"/>
-      <c r="I92" s="51" t="s">
+      <c r="H92" s="35"/>
+      <c r="I92" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="J92" s="48"/>
+      <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="49" t="s">
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="F93" s="48"/>
+      <c r="F93" s="36"/>
       <c r="G93" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H93" s="47"/>
+      <c r="H93" s="35"/>
       <c r="I93" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="J93" s="48"/>
+      <c r="J93" s="36"/>
     </row>
     <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
@@ -3477,7 +3513,7 @@
       </c>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="14"/>
@@ -3490,7 +3526,7 @@
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
     </row>
-    <row r="98" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="14"/>
@@ -3500,13 +3536,13 @@
       <c r="G98" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H98" s="42"/>
+      <c r="H98" s="30"/>
       <c r="I98" s="18" t="s">
         <v>169</v>
       </c>
       <c r="J98" s="18"/>
     </row>
-    <row r="99" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="14"/>
@@ -3519,657 +3555,974 @@
       <c r="G99" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H99" s="42"/>
+      <c r="H99" s="30"/>
       <c r="I99" s="9" t="s">
         <v>173</v>
       </c>
       <c r="J99" s="18"/>
     </row>
-    <row r="100" spans="2:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="14"/>
       <c r="E100" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F100" s="41"/>
+      <c r="F100" s="29"/>
       <c r="G100" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H100" s="42"/>
+      <c r="H100" s="30"/>
       <c r="I100" s="18" t="s">
         <v>175</v>
       </c>
       <c r="J100" s="18"/>
     </row>
-    <row r="101" spans="2:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="14"/>
       <c r="E101" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F101" s="41"/>
+      <c r="F101" s="29"/>
       <c r="G101" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H101" s="42"/>
+      <c r="H101" s="30"/>
       <c r="I101" s="9" t="s">
         <v>167</v>
       </c>
       <c r="J101" s="18"/>
     </row>
-    <row r="102" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="14"/>
-      <c r="E102" s="38" t="s">
+      <c r="E102" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="51" t="s">
+      <c r="F102" s="36"/>
+      <c r="G102" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H102" s="47"/>
-      <c r="I102" s="51" t="s">
+      <c r="H102" s="35"/>
+      <c r="I102" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="J102" s="48"/>
-    </row>
-    <row r="103" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J102" s="36"/>
+    </row>
+    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="49" t="s">
+      <c r="E103" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="F103" s="48"/>
+      <c r="F103" s="36"/>
       <c r="G103" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H103" s="47"/>
+      <c r="H103" s="35"/>
       <c r="I103" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="J103" s="48"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J103" s="36"/>
+    </row>
+    <row r="104" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="58"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+    </row>
+    <row r="105" spans="1:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B105" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
+      <c r="E109" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
+      <c r="G109" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="H109" s="2"/>
-      <c r="I109" s="14"/>
+      <c r="I109" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="J109" s="14"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+      <c r="E110" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
+      <c r="G110" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H110" s="2"/>
-      <c r="I110" s="14"/>
+      <c r="I110" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="J110" s="14"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
+      <c r="E111" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
+      <c r="G111" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="H111" s="2"/>
-      <c r="I111" s="14"/>
+      <c r="I111" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="J111" s="14"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="14"/>
+    <row r="112" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" s="15"/>
+      <c r="G112" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" s="5"/>
+      <c r="I112" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="E113" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
+      <c r="G113" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="H113" s="2"/>
-      <c r="I113" s="14"/>
+      <c r="I113" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
+      <c r="E114" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
+      <c r="G114" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="H114" s="2"/>
-      <c r="I114" s="14"/>
+      <c r="I114" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="J114" s="14"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+    </row>
+    <row r="116" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B116" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="13"/>
+      <c r="G116" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="13"/>
+      <c r="G117" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J117" s="9"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="E118" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
+      <c r="G118" s="18"/>
       <c r="H118" s="2"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
+      <c r="E119" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
+      <c r="G119" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="H119" s="2"/>
-      <c r="I119" s="14"/>
+      <c r="I119" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
+      <c r="E120" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
+      <c r="G120" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="H120" s="2"/>
-      <c r="I120" s="14"/>
+      <c r="I120" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="J120" s="14"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+    </row>
+    <row r="122" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="13"/>
+      <c r="G122" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="9"/>
+    </row>
+    <row r="123" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123" s="13"/>
+      <c r="G123" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
+      <c r="E124" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
+      <c r="G124" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="H124" s="2"/>
-      <c r="I124" s="14"/>
+      <c r="I124" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="J124" s="14"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+    </row>
+    <row r="126" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B126" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="13"/>
+      <c r="G126" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="2:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="13"/>
+      <c r="G127" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J127" s="9"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+    </row>
+    <row r="129" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B129" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="13"/>
+      <c r="G129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F130" s="13"/>
+      <c r="G130" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
+      <c r="E131" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
+      <c r="G131" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="H131" s="2"/>
-      <c r="I131" s="14"/>
+      <c r="I131" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="J131" s="14"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
+      <c r="E132" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="H132" s="2"/>
-      <c r="I132" s="14"/>
+      <c r="I132" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="J132" s="14"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="E133" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="H133" s="2"/>
-      <c r="I133" s="14"/>
+      <c r="I133" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="J133" s="14"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="23"/>
+    </row>
+    <row r="135" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B135" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="13"/>
+      <c r="G135" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="29"/>
+      <c r="G136" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F137" s="18"/>
+      <c r="G137" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H137" s="30"/>
+      <c r="I137" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J137" s="18"/>
+    </row>
+    <row r="138" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H138" s="30"/>
+      <c r="I138" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J138" s="18"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="14"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+    </row>
+    <row r="140" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B140" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="29"/>
+      <c r="G140" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" s="29"/>
+      <c r="G141" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H142" s="30"/>
+      <c r="I142" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J142" s="18"/>
+    </row>
+    <row r="143" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H143" s="30"/>
+      <c r="I143" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J143" s="18"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H144" s="30"/>
+      <c r="I144" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J144" s="18"/>
+    </row>
+    <row r="145" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H145" s="30"/>
+      <c r="I145" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J145" s="18"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+    </row>
+    <row r="147" spans="2:10" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B147" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="29"/>
+      <c r="G147" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="2:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F148" s="29"/>
+      <c r="G148" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="2:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F149" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J149" s="9"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="32"/>
+      <c r="G150" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J150" s="9"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="14"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="14"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="14"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F151" s="32"/>
+      <c r="G151" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="152" spans="2:10" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F152" s="32"/>
+      <c r="G152" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J152" s="9"/>
+    </row>
+    <row r="153" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" s="30"/>
+      <c r="I153" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J153" s="18"/>
+    </row>
+    <row r="154" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G154" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" s="30"/>
+      <c r="I154" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J154" s="18"/>
+    </row>
+    <row r="155" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H155" s="30"/>
+      <c r="I155" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J155" s="18"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
+      <c r="E156" s="28"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="2"/>
@@ -4177,43 +4530,43 @@
       <c r="J156" s="14"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
       <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
+      <c r="G157" s="9"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="14"/>
+      <c r="I157" s="9"/>
       <c r="J157" s="14"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
+      <c r="E158" s="26"/>
       <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
+      <c r="G158" s="18"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="14"/>
+      <c r="I158" s="18"/>
       <c r="J158" s="14"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
+      <c r="E159" s="28"/>
       <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
+      <c r="G159" s="18"/>
       <c r="H159" s="2"/>
-      <c r="I159" s="14"/>
+      <c r="I159" s="18"/>
       <c r="J159" s="14"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
+      <c r="E160" s="28"/>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
       <c r="H160" s="2"/>
@@ -4221,76 +4574,76 @@
       <c r="J160" s="14"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="14"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="14"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="14"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
+      <c r="E164" s="28"/>
       <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
+      <c r="G164" s="9"/>
       <c r="H164" s="2"/>
-      <c r="I164" s="14"/>
+      <c r="I164" s="9"/>
       <c r="J164" s="14"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
+      <c r="E165" s="28"/>
       <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
+      <c r="G165" s="18"/>
       <c r="H165" s="2"/>
-      <c r="I165" s="14"/>
+      <c r="I165" s="18"/>
       <c r="J165" s="14"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
       <c r="H166" s="2"/>
-      <c r="I166" s="14"/>
+      <c r="I166" s="18"/>
       <c r="J166" s="14"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
+      <c r="E167" s="28"/>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="2"/>
@@ -4301,19 +4654,19 @@
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
       <c r="H168" s="2"/>
-      <c r="I168" s="14"/>
+      <c r="I168" s="18"/>
       <c r="J168" s="14"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="18"/>
       <c r="G169" s="14"/>
       <c r="H169" s="2"/>
       <c r="I169" s="14"/>
@@ -4323,29 +4676,29 @@
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
+      <c r="E170" s="28"/>
       <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
+      <c r="G170" s="18"/>
       <c r="H170" s="2"/>
-      <c r="I170" s="14"/>
+      <c r="I170" s="18"/>
       <c r="J170" s="14"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
+      <c r="E171" s="28"/>
       <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
+      <c r="G171" s="18"/>
       <c r="H171" s="2"/>
-      <c r="I171" s="14"/>
+      <c r="I171" s="18"/>
       <c r="J171" s="14"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
+      <c r="E172" s="28"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="2"/>
@@ -4353,48 +4706,48 @@
       <c r="J172" s="14"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="14"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="14"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="14"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="14"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="2"/>
@@ -10789,13 +11142,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G2:J7"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G2:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
